--- a/Log-service/src/main/resources/javaee_log_chatmessage.xlsx
+++ b/Log-service/src/main/resources/javaee_log_chatmessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12720" windowHeight="5790"/>
+    <workbookView windowWidth="13290" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>序号</t>
   </si>
@@ -31,43 +31,211 @@
     <t>发言人</t>
   </si>
   <si>
-    <t>hello Java</t>
-  </si>
-  <si>
-    <t>中午</t>
+    <t>你说什么啊？</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:22</t>
   </si>
   <si>
     <t>张一</t>
   </si>
   <si>
-    <t>hello C</t>
+    <t>2018/6/27-15:42:23</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:24</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:25</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:26</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:27</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:28</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:29</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:30</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:31</t>
+  </si>
+  <si>
+    <t>你在不在？</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:32</t>
   </si>
   <si>
     <t>张二</t>
   </si>
   <si>
-    <t>hello C#</t>
+    <t>2018/6/27-15:42:33</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:34</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:35</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:36</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:37</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:38</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:39</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:40</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:41</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:42</t>
   </si>
   <si>
     <t>张三</t>
   </si>
   <si>
-    <t>hello Javascript</t>
+    <t>2018/6/27-15:42:43</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:44</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:45</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:46</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:47</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:48</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:49</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:50</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:51</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:52</t>
   </si>
   <si>
     <t>张四</t>
   </si>
   <si>
-    <t>hello Python</t>
+    <t>2018/6/27-15:42:53</t>
+  </si>
+  <si>
+    <t>我不在家啊！</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:54</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:55</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:56</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:57</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:58</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:59</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:60</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:61</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:62</t>
   </si>
   <si>
     <t>张五</t>
   </si>
   <si>
-    <t>hello Php</t>
+    <t>2018/6/27-15:42:63</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:64</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:65</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:66</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:67</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:68</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:69</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:70</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:71</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:72</t>
   </si>
   <si>
     <t>张六</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:73</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:74</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:75</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:76</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:77</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:78</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:79</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:80</t>
+  </si>
+  <si>
+    <t>2018/6/27-15:42:81</t>
   </si>
   <si>
     <t>ID</t>
@@ -132,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -169,9 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +347,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,17 +383,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,9 +405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,9 +420,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,22 +437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,15 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,14 +467,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +488,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,15 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -586,21 +745,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,8 +772,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,16 +822,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +849,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1228,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
@@ -1242,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>6</v>
@@ -1256,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
@@ -1270,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
@@ -1284,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
@@ -1298,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>6</v>
@@ -1312,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>6</v>
@@ -1326,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
@@ -1340,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
@@ -1351,13 +1519,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1365,13 +1533,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1379,13 +1547,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1393,13 +1561,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1407,13 +1575,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1421,13 +1589,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1435,13 +1603,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1449,13 +1617,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1463,13 +1631,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1477,13 +1645,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1491,13 +1659,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1505,13 +1673,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1519,13 +1687,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1533,13 +1701,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1547,13 +1715,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1561,13 +1729,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1575,13 +1743,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1589,13 +1757,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1603,13 +1771,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1617,13 +1785,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1631,13 +1799,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1645,13 +1813,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1659,13 +1827,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1673,13 +1841,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1687,13 +1855,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1701,13 +1869,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1715,13 +1883,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1729,13 +1897,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1743,13 +1911,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1757,13 +1925,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1771,13 +1939,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1785,13 +1953,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1799,13 +1967,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1813,13 +1981,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1827,13 +1995,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1841,13 +2009,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1855,13 +2023,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1869,13 +2037,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1883,13 +2051,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1897,13 +2065,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1911,13 +2079,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1925,13 +2093,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1939,13 +2107,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1953,13 +2121,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1967,13 +2135,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1981,13 +2149,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1995,13 +2163,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2009,13 +2177,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2023,13 +2191,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2037,13 +2205,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2073,22 +2241,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2101,13 +2269,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2118,10 +2286,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2129,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2137,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2145,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2153,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2161,7 +2329,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2169,7 +2337,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2177,7 +2345,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2185,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
